--- a/Tehnici de imbunatatire a performantelor.xlsx
+++ b/Tehnici de imbunatatire a performantelor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\Teme_suplimentare\retele_conv_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BBAB0F8-2793-4E23-87EF-662329C39314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFADBCBD-ABC3-4E2B-9488-F24B7D7C61AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3912" yWindow="1488" windowWidth="17280" windowHeight="9420" xr2:uid="{A8FE79B1-E387-4A5A-820C-762D8FCB58F3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Tehnica</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Utilizarea unei retele preantrenate</t>
-  </si>
-  <si>
-    <t>Regularizare L1/L2</t>
   </si>
   <si>
     <t xml:space="preserve">Batch Normalization </t>
@@ -117,11 +114,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B212D4DE-48BE-4672-BB43-90AE22DF4FB4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,36 +445,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -500,35 +496,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
